--- a/管理・設計ドキュメント/00_プロジェクト管理/000.検討課題台帳.xlsx
+++ b/管理・設計ドキュメント/00_プロジェクト管理/000.検討課題台帳.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\報告用\④php_laravelプロジェクト\00_プロジェクト管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\00_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DABE0F-1482-4F76-9132-316D264D7EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93CD7E4-C397-4246-A887-438B945265F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="480" windowWidth="24375" windowHeight="14925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワーク" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -1201,6 +1202,103 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品詳細画面
+現在、商品情報マスタの仮更新者、仮更新承認者のコードのみ表示しているが、名前をオペレータ情報マスタより取得して画面に表示したい。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品詳細画面のコントローラー（ProductReferenceController.php）に、オペレーター情報マスタから名前を取得するよう修正</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグマスタへの登録業務の設計</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2263,10 +2361,10 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2462,9 +2560,11 @@
         <v>54</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43929</v>
+      </c>
       <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
@@ -2483,9 +2583,11 @@
         <v>56</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43929</v>
+      </c>
       <c r="F10" s="8" t="s">
         <v>57</v>
       </c>
@@ -2502,9 +2604,11 @@
         <v>59</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43929</v>
+      </c>
       <c r="F11" s="8" t="s">
         <v>60</v>
       </c>
@@ -2521,9 +2625,11 @@
         <v>61</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43929</v>
+      </c>
       <c r="F12" s="8" t="s">
         <v>62</v>
       </c>
@@ -2605,24 +2711,40 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="93.75">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="6">
+        <v>43890</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43890</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="6">
+        <v>43929</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>

--- a/管理・設計ドキュメント/00_プロジェクト管理/000.検討課題台帳.xlsx
+++ b/管理・設計ドキュメント/00_プロジェクト管理/000.検討課題台帳.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\00_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93CD7E4-C397-4246-A887-438B945265F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C157C703-5A21-4643-9941-038B6D9E34BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1192,20 +1192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のモックについて習得することでより簡単にテストできそう。
-https://readouble.com/laravel/6.x/ja/mocking.html</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュウトク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品詳細画面
 現在、商品情報マスタの仮更新者、仮更新承認者のコードのみ表示しているが、名前をオペレータ情報マスタより取得して画面に表示したい。</t>
     <rPh sb="0" eb="2">
@@ -1299,6 +1285,33 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のモックについて習得することでより簡単にテストできそう。
+https://readouble.com/laravel/6.x/ja/mocking.html
+⇒ＵＮＩＴテストは、モデルで行うくらいで、それ以外は機能テスト(feature）で行うこととした。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1323,7 +1336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,6 +1346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1407,6 +1426,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2364,7 +2395,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2655,23 +2686,25 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="93.75">
-      <c r="A14" s="5">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="16">
         <v>43864</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="16">
+        <v>43945</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="93.75">
       <c r="A15" s="5">
@@ -2719,7 +2752,7 @@
         <v>43890</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>28</v>
@@ -2728,7 +2761,7 @@
         <v>43890</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -2740,7 +2773,7 @@
         <v>43929</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>26</v>
